--- a/TrizUI/TrizUI/Doc/Objects.xlsx
+++ b/TrizUI/TrizUI/Doc/Objects.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345"/>
   </bookViews>
   <sheets>
-    <sheet name="ProjectInfo" sheetId="1" r:id="rId1"/>
+    <sheet name="Project" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -58,31 +58,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部門</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>編號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>DateTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Department</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部門</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>編號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code</t>
+    <t>CreateDateTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -464,7 +464,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="H5" sqref="A1:H5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -507,10 +507,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -523,10 +523,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -567,13 +567,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1">
@@ -692,6 +692,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 

--- a/TrizUI/TrizUI/Doc/Objects.xlsx
+++ b/TrizUI/TrizUI/Doc/Objects.xlsx
@@ -464,7 +464,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -536,7 +536,9 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">

--- a/TrizUI/TrizUI/Doc/Objects.xlsx
+++ b/TrizUI/TrizUI/Doc/Objects.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,35 +54,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateDateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Owner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Department</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部門</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>編號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DateTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateDateTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -121,7 +141,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -144,13 +164,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -158,6 +189,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -464,7 +498,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -507,13 +541,13 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -523,30 +557,36 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1">
         <v>50</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
       <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -568,46 +608,72 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>50</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1">
+        <v>50</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>

--- a/TrizUI/TrizUI/Doc/Objects.xlsx
+++ b/TrizUI/TrizUI/Doc/Objects.xlsx
@@ -498,7 +498,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -674,7 +674,9 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">

--- a/TrizUI/TrizUI/Doc/Objects.xlsx
+++ b/TrizUI/TrizUI/Doc/Objects.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="User" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,86 @@
   </si>
   <si>
     <t>Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateDateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mobile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -768,12 +848,238 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1">
+        <v>50</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>50</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1">
+        <v>50</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1">
+        <v>50</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1">
+        <v>50</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TrizUI/TrizUI/Doc/Objects.xlsx
+++ b/TrizUI/TrizUI/Doc/Objects.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
     <sheet name="User" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="UserProject" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,6 +183,46 @@
   </si>
   <si>
     <t>用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateDateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserProject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -850,8 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1087,12 +1127,97 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TrizUI/TrizUI/Doc/Objects.xlsx
+++ b/TrizUI/TrizUI/Doc/Objects.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
     <sheet name="User" sheetId="2" r:id="rId2"/>
     <sheet name="UserProject" sheetId="3" r:id="rId3"/>
+    <sheet name="QuestionDescription" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="73">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,6 +224,89 @@
   </si>
   <si>
     <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题描述</t>
+  </si>
+  <si>
+    <t>目标客户（群）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统所处环境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统相关要求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐性问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性能与需求的差距</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustomerDes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Environment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitialProblemDes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RelativeDemand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PotentialProblem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GapOfPerformanceRequirment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuestionDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -230,7 +314,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,6 +329,12 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF393939"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -301,7 +391,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -313,6 +403,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -621,7 +717,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
@@ -633,7 +729,7 @@
     <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -659,7 +755,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -675,7 +771,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -701,7 +797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -727,7 +823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -753,7 +849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -777,7 +873,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -799,7 +895,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -809,7 +905,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -819,7 +915,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -829,7 +925,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -839,7 +935,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -849,7 +945,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -859,7 +955,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -869,7 +965,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -891,17 +987,17 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
@@ -927,7 +1023,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -943,7 +1039,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -951,7 +1047,7 @@
         <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="D3" s="1">
         <v>20</v>
@@ -969,7 +1065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -991,7 +1087,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>38</v>
       </c>
@@ -1015,7 +1111,7 @@
       </c>
       <c r="H5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -1039,7 +1135,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -1063,7 +1159,7 @@
       </c>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -1083,7 +1179,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
@@ -1103,7 +1199,7 @@
       </c>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -1129,11 +1225,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="H5" sqref="A1:H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
@@ -1144,7 +1240,7 @@
     <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>46</v>
       </c>
@@ -1170,7 +1266,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -1181,7 +1277,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>43</v>
       </c>
@@ -1195,7 +1291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>44</v>
       </c>
@@ -1206,7 +1302,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -1221,4 +1317,252 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="18" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="18" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="1">
+        <v>500</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="1">
+        <v>500</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="18" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="1">
+        <v>500</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="18" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="1">
+        <v>500</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="18" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="1">
+        <v>500</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="18" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="1">
+        <v>500</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="18" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="1">
+        <v>500</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" ht="18" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>
--- a/TrizUI/TrizUI/Doc/Objects.xlsx
+++ b/TrizUI/TrizUI/Doc/Objects.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
     <sheet name="User" sheetId="2" r:id="rId2"/>
     <sheet name="UserProject" sheetId="3" r:id="rId3"/>
     <sheet name="QuestionDescription" sheetId="4" r:id="rId4"/>
+    <sheet name="QuestionAnalyse" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="124">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -308,13 +309,179 @@
   <si>
     <t>问题描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuestionAnalyse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IdealResolution1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicQuestion1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AgainstObject1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Constriction1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResolutionImportance1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BasicQuestion2</t>
+  </si>
+  <si>
+    <t>BasicQuestion3</t>
+  </si>
+  <si>
+    <t>BasicQuestion4</t>
+  </si>
+  <si>
+    <t>IdealResolution2</t>
+  </si>
+  <si>
+    <t>IdealResolution3</t>
+  </si>
+  <si>
+    <t>IdealResolution4</t>
+  </si>
+  <si>
+    <t>IdealResolution5</t>
+  </si>
+  <si>
+    <t>AgainstObject2</t>
+  </si>
+  <si>
+    <t>AgainstObject3</t>
+  </si>
+  <si>
+    <t>AgainstObject4</t>
+  </si>
+  <si>
+    <t>AgainstObject5</t>
+  </si>
+  <si>
+    <t>Constriction2</t>
+  </si>
+  <si>
+    <t>Constriction3</t>
+  </si>
+  <si>
+    <t>Constriction4</t>
+  </si>
+  <si>
+    <t>Constriction5</t>
+  </si>
+  <si>
+    <t>ResolutionImportance2</t>
+  </si>
+  <si>
+    <t>ResolutionImportance3</t>
+  </si>
+  <si>
+    <t>ResolutionImportance4</t>
+  </si>
+  <si>
+    <t>ResolutionImportance5</t>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题的理想解1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定基本问题1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统作用对象1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题的约束1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决问题的重要性1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题的理想解2</t>
+  </si>
+  <si>
+    <t>问题的理想解3</t>
+  </si>
+  <si>
+    <t>问题的理想解4</t>
+  </si>
+  <si>
+    <t>问题的理想解5</t>
+  </si>
+  <si>
+    <t>确定基本问题2</t>
+  </si>
+  <si>
+    <t>确定基本问题3</t>
+  </si>
+  <si>
+    <t>确定基本问题4</t>
+  </si>
+  <si>
+    <t>系统作用对象2</t>
+  </si>
+  <si>
+    <t>系统作用对象3</t>
+  </si>
+  <si>
+    <t>系统作用对象4</t>
+  </si>
+  <si>
+    <t>系统作用对象5</t>
+  </si>
+  <si>
+    <t>问题的约束2</t>
+  </si>
+  <si>
+    <t>问题的约束3</t>
+  </si>
+  <si>
+    <t>问题的约束4</t>
+  </si>
+  <si>
+    <t>问题的约束5</t>
+  </si>
+  <si>
+    <t>解决问题的重要性2</t>
+  </si>
+  <si>
+    <t>解决问题的重要性3</t>
+  </si>
+  <si>
+    <t>解决问题的重要性4</t>
+  </si>
+  <si>
+    <t>解决问题的重要性5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,6 +502,14 @@
       <color rgb="FF393939"/>
       <name val="Open Sans"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -391,7 +566,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -409,6 +584,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1323,8 +1501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="E5" sqref="A1:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
@@ -1565,4 +1743,584 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="1">
+        <v>500</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="1">
+        <v>500</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="1">
+        <v>500</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="1">
+        <v>500</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="1">
+        <v>500</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="1">
+        <v>500</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="1">
+        <v>500</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="1">
+        <v>500</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="1">
+        <v>500</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="1">
+        <v>500</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="1">
+        <v>500</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="1">
+        <v>500</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="1">
+        <v>500</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="1">
+        <v>500</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="1">
+        <v>500</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="1">
+        <v>500</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="1">
+        <v>500</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="1">
+        <v>500</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="1">
+        <v>500</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="1">
+        <v>500</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="1">
+        <v>500</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="1">
+        <v>500</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="1">
+        <v>500</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="1">
+        <v>500</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TrizUI/TrizUI/Doc/Objects.xlsx
+++ b/TrizUI/TrizUI/Doc/Objects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,15 @@
     <sheet name="UserProject" sheetId="3" r:id="rId3"/>
     <sheet name="QuestionDescription" sheetId="4" r:id="rId4"/>
     <sheet name="QuestionAnalyse" sheetId="5" r:id="rId5"/>
+    <sheet name="FunEleMutualReact" sheetId="6" r:id="rId6"/>
+    <sheet name="FunctionElement" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="151">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -475,13 +477,121 @@
   </si>
   <si>
     <t>解决问题的重要性5</t>
+  </si>
+  <si>
+    <t>FunEleMutualReact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能元件相互作用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动元件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动元件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionGrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元件类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PositiveEleID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassiveEleID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PositiveEleName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassiveEleName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EleName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FatherID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父节点ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionElement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能元件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动元件ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动元件ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -510,6 +620,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF393939"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -566,7 +683,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -586,6 +703,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1502,7 +1622,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="E5" sqref="A1:H11"/>
+      <selection activeCell="A9" sqref="A1:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
@@ -1749,8 +1869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A10" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2322,5 +2442,435 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
+    <col min="3" max="3" width="8.125" customWidth="1"/>
+    <col min="4" max="4" width="6" customWidth="1"/>
+    <col min="5" max="5" width="5.875" customWidth="1"/>
+    <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1">
+        <v>10</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="1">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TrizUI/TrizUI/Doc/Objects.xlsx
+++ b/TrizUI/TrizUI/Doc/Objects.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="158">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -527,19 +527,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>PassiveEleID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PositiveEleName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassiveEleName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FatherID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父节点ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionElement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能元件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动元件ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动元件ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>PositiveEleID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PassiveEleID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PositiveEleName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PassiveEleName</t>
+    <t>元件名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -547,43 +599,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FatherID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>父节点ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FunctionElement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能元件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主动元件ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被动元件ID</t>
+    <t>EleX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EleY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元件X坐标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元件Y坐标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2448,10 +2476,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2510,13 +2538,13 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -2526,36 +2554,26 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
@@ -2563,7 +2581,9 @@
       <c r="D5" s="1">
         <v>10</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
       <c r="F5" s="1">
         <v>1</v>
       </c>
@@ -2576,50 +2596,50 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="D6" s="1">
+        <v>10</v>
+      </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>128</v>
+        <v>136</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1">
-        <v>10</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>129</v>
+        <v>138</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
@@ -2640,10 +2660,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -2664,10 +2684,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
@@ -2682,23 +2702,47 @@
       <c r="G10" s="1">
         <v>1</v>
       </c>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1">
+        <v>10</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2708,10 +2752,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2727,10 +2771,10 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -2769,36 +2813,28 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
       <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -2806,30 +2842,36 @@
       <c r="D4" s="1">
         <v>10</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
       <c r="F4" s="1">
         <v>1</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>146</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
       <c r="G5" s="1">
         <v>1</v>
       </c>
@@ -2837,15 +2879,17 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D6" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="D6" s="1">
+        <v>300</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1">
@@ -2855,22 +2899,81 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>157</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="D7" s="1">
+        <v>300</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
       <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="1">
+        <v>100</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/TrizUI/TrizUI/Doc/Objects.xlsx
+++ b/TrizUI/TrizUI/Doc/Objects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" activeTab="5"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -595,23 +595,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>EleX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EleY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元件X坐标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元件Y坐标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>EleName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EleX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EleY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元件X坐标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元件Y坐标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2478,7 +2478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
+    <sheetView zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -2754,8 +2754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2831,7 +2831,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>150</v>
@@ -2879,10 +2879,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -2899,10 +2899,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>

--- a/TrizUI/TrizUI/Doc/Objects.xlsx
+++ b/TrizUI/TrizUI/Doc/Objects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" activeTab="6"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -531,6 +531,74 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>FatherID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父节点ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能元件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动元件ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动元件ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PositiveEleID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元件名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EleX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EleY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元件X坐标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元件Y坐标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>PositiveEleName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -539,75 +607,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FatherID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>父节点ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FunctionElement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能元件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主动元件ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被动元件ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PositiveEleID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元件名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProjectID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EleX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EleY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元件X坐标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元件Y坐标</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2478,8 +2478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2538,13 +2538,13 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -2554,13 +2554,13 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -2570,7 +2570,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>126</v>
@@ -2623,10 +2623,10 @@
         <v>136</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -2636,7 +2636,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>128</v>
@@ -2754,8 +2754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2771,10 +2771,10 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -2813,13 +2813,13 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -2834,7 +2834,7 @@
         <v>157</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -2879,10 +2879,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -2899,10 +2899,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
@@ -2919,13 +2919,13 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="D8" s="1">
         <v>100</v>
@@ -2939,13 +2939,13 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>

--- a/TrizUI/TrizUI/Doc/Objects.xlsx
+++ b/TrizUI/TrizUI/Doc/Objects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" activeTab="5"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="QuestionAnalyse" sheetId="5" r:id="rId5"/>
     <sheet name="FunEleMutualReact" sheetId="6" r:id="rId6"/>
     <sheet name="FunctionElement" sheetId="7" r:id="rId7"/>
+    <sheet name="Invoice" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="180">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -612,6 +613,94 @@
   </si>
   <si>
     <t>EleName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VisitorID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业抬头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳税人识别号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开户行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件人电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CompanyTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TaxNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BankAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BankName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeliveryAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContactName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContactTel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invoice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2478,7 +2567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
+    <sheetView zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -2755,7 +2844,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A10"/>
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2976,4 +3065,302 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="1">
+        <v>50</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="1">
+        <v>50</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" s="1">
+        <v>50</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" s="1">
+        <v>50</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D8" s="1">
+        <v>50</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" s="1">
+        <v>50</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D10" s="1">
+        <v>50</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11" s="1">
+        <v>50</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D12" s="1">
+        <v>50</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TrizUI/TrizUI/Doc/Objects.xlsx
+++ b/TrizUI/TrizUI/Doc/Objects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" activeTab="7"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="184">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -488,11 +488,227 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>作用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionGrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元件类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassiveEleID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FatherID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父节点ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能元件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动元件ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动元件ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PositiveEleID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元件名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EleX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EleY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元件X坐标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元件Y坐标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionElement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EleName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VisitorID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企业抬头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳税人识别号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开户行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快递地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收件人电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CompanyTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TaxNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BankAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BankName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeliveryAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContactName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ContactTel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invoice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PositiveEleName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PositiveEleType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>主动元件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>作用</t>
+    <t>主动元件类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassiveEleName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassiveEleType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -500,207 +716,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>功能类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能等级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FunctionType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FunctionGrade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FunctionName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ElementType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元件类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PassiveEleID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FatherID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>父节点ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能元件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主动元件ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被动元件ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PositiveEleID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元件名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProjectID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EleX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EleY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元件X坐标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元件Y坐标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PositiveEleName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PassiveEleName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FunctionElement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EleName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VisitorID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>企业抬头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纳税人识别号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开户行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快递地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收件人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收件人电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CompanyTitle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TaxNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BankAccount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BankName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DeliveryAddress</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ContactName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ContactTel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Invoice</t>
+    <t>被动元件类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2565,10 +2581,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2627,13 +2643,13 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -2643,13 +2659,13 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -2659,10 +2675,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>126</v>
+        <v>178</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
@@ -2685,10 +2701,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -2696,7 +2712,9 @@
       <c r="D6" s="1">
         <v>10</v>
       </c>
-      <c r="E6" s="1"/>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
@@ -2709,50 +2727,50 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D7" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="D7" s="1">
+        <v>10</v>
+      </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1">
-        <v>10</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>129</v>
+        <v>180</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>182</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -2773,10 +2791,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>132</v>
+        <v>181</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>130</v>
+        <v>183</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
@@ -2784,7 +2802,9 @@
       <c r="D10" s="1">
         <v>10</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
       <c r="F10" s="1">
         <v>1</v>
       </c>
@@ -2797,10 +2817,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>8</v>
@@ -2815,23 +2835,71 @@
       <c r="G11" s="1">
         <v>1</v>
       </c>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2860,10 +2928,10 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -2902,13 +2970,13 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -2920,10 +2988,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -2946,10 +3014,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
@@ -2968,10 +3036,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -2988,10 +3056,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
@@ -3008,13 +3076,13 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="D8" s="1">
         <v>100</v>
@@ -3028,13 +3096,13 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -3071,7 +3139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -3083,10 +3151,10 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -3125,13 +3193,13 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -3143,13 +3211,13 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D4" s="1">
         <v>50</v>
@@ -3169,13 +3237,13 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D5" s="1">
         <v>50</v>
@@ -3191,13 +3259,13 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D6" s="1">
         <v>50</v>
@@ -3213,13 +3281,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D7" s="1">
         <v>50</v>
@@ -3235,13 +3303,13 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D8" s="1">
         <v>50</v>
@@ -3257,13 +3325,13 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D9" s="1">
         <v>50</v>
@@ -3279,13 +3347,13 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="D10" s="1">
         <v>50</v>
@@ -3301,13 +3369,13 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D11" s="1">
         <v>50</v>
@@ -3323,13 +3391,13 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D12" s="1">
         <v>50</v>
@@ -3362,5 +3430,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/TrizUI/TrizUI/Doc/Objects.xlsx
+++ b/TrizUI/TrizUI/Doc/Objects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" activeTab="5"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="FunEleMutualReact" sheetId="6" r:id="rId6"/>
     <sheet name="FunctionElement" sheetId="7" r:id="rId7"/>
     <sheet name="Invoice" sheetId="8" r:id="rId8"/>
+    <sheet name="ComponentParam" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="193">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -717,6 +718,40 @@
   </si>
   <si>
     <t>被动元件类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComponentParam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级功能参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComponentName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParamName</t>
+  </si>
+  <si>
+    <t>ParamType</t>
+  </si>
+  <si>
+    <t>ProjectID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元件特征参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2002,7 +2037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -2583,7 +2618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
+    <sheetView zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -2912,7 +2947,7 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2970,7 +3005,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>146</v>
+        <v>189</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>146</v>
@@ -3140,7 +3175,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C10" sqref="A1:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3432,4 +3467,177 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1">
+        <v>50</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>50</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1">
+        <v>50</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TrizUI/TrizUI/Doc/Objects.xlsx
+++ b/TrizUI/TrizUI/Doc/Objects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" activeTab="8"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="FunctionElement" sheetId="7" r:id="rId7"/>
     <sheet name="Invoice" sheetId="8" r:id="rId8"/>
     <sheet name="ComponentParam" sheetId="9" r:id="rId9"/>
+    <sheet name="CauseEffectCurProblem" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="195">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -752,6 +753,14 @@
   </si>
   <si>
     <t>参数名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CauseEffectCurProblem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProblemDescription</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1448,6 +1457,137 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1">
+        <v>200</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
@@ -2618,7 +2758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -3473,8 +3613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
+      <selection activeCell="D10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3639,5 +3779,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/TrizUI/TrizUI/Doc/Objects.xlsx
+++ b/TrizUI/TrizUI/Doc/Objects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="Invoice" sheetId="8" r:id="rId8"/>
     <sheet name="ComponentParam" sheetId="9" r:id="rId9"/>
     <sheet name="CauseEffectCurProblem" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="197">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -722,45 +723,52 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>初级功能参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComponentName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParamName</t>
+  </si>
+  <si>
+    <t>ParamType</t>
+  </si>
+  <si>
+    <t>ProjectID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元件特征参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CauseEffectCurProblem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProblemDescription</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ComponentParam</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>初级功能参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ComponentName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ParamName</t>
-  </si>
-  <si>
-    <t>ParamType</t>
-  </si>
-  <si>
-    <t>ProjectID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元件特征参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CauseEffectCurProblem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProblemDescription</t>
+    <t>Disabled</t>
+  </si>
+  <si>
+    <t>Disabled</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1461,7 +1469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -1478,10 +1486,10 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -1544,10 +1552,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -1583,6 +1591,20 @@
       <c r="H5" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3145,7 +3167,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>146</v>
@@ -3611,10 +3633,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
-      <selection activeCell="D10" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3623,17 +3645,17 @@
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
     <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -3672,7 +3694,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>44</v>
@@ -3681,17 +3703,25 @@
         <v>21</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -3712,7 +3742,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>192</v>
@@ -3736,10 +3766,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -3762,19 +3792,45 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1">
+        <v>50</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/TrizUI/TrizUI/Doc/Objects.xlsx
+++ b/TrizUI/TrizUI/Doc/Objects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" firstSheet="4" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -17,14 +17,15 @@
     <sheet name="Invoice" sheetId="8" r:id="rId8"/>
     <sheet name="ComponentParam" sheetId="9" r:id="rId9"/>
     <sheet name="CauseEffectCurProblem" sheetId="10" r:id="rId10"/>
-    <sheet name="Sheet1" sheetId="11" r:id="rId11"/>
+    <sheet name="ComponentRel" sheetId="11" r:id="rId11"/>
+    <sheet name="Conflict" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="205">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -769,6 +770,34 @@
   </si>
   <si>
     <t>Disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SectionID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImpactComponentName</t>
+  </si>
+  <si>
+    <t>ImpactParamName</t>
+  </si>
+  <si>
+    <t>影响该参数元件</t>
+  </si>
+  <si>
+    <t>ComponentParamName</t>
+  </si>
+  <si>
+    <t>ComponentRel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conflict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲突列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1599,12 +1628,501 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="A7" sqref="A1:H10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>50</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1">
+        <v>50</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1">
+        <v>50</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1">
+        <v>50</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1">
+        <v>50</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>50</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1">
+        <v>50</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1">
+        <v>50</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1">
+        <v>50</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1">
+        <v>50</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3635,8 +4153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
+      <selection activeCell="B10" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/TrizUI/TrizUI/Doc/Objects.xlsx
+++ b/TrizUI/TrizUI/Doc/Objects.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="213">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -798,6 +798,32 @@
   </si>
   <si>
     <t>冲突列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RelComponentName</t>
+  </si>
+  <si>
+    <t>RelComponentParamName</t>
+  </si>
+  <si>
+    <t>CurrentConfig</t>
+  </si>
+  <si>
+    <t>ChangeConfig</t>
+  </si>
+  <si>
+    <t>CurrentProblem</t>
+  </si>
+  <si>
+    <t>NewProblem</t>
+  </si>
+  <si>
+    <t>目前问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新的问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1887,10 +1913,14 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
@@ -1960,18 +1990,18 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D4" s="1">
+        <v>50</v>
+      </c>
+      <c r="E4" s="1"/>
       <c r="F4" s="1">
         <v>1</v>
       </c>
@@ -1984,10 +2014,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>189</v>
+        <v>206</v>
+      </c>
+      <c r="B5" t="s">
+        <v>200</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
@@ -2008,10 +2038,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B6" t="s">
-        <v>200</v>
+        <v>207</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -2032,10 +2062,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
@@ -2043,9 +2073,7 @@
       <c r="D7" s="1">
         <v>50</v>
       </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
+      <c r="E7" s="1"/>
       <c r="F7" s="1">
         <v>1</v>
       </c>
@@ -2058,10 +2086,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
@@ -2082,10 +2110,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -2093,9 +2121,7 @@
       <c r="D9" s="1">
         <v>50</v>
       </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
+      <c r="E9" s="1"/>
       <c r="F9" s="1">
         <v>1</v>
       </c>
@@ -2125,6 +2151,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 

--- a/TrizUI/TrizUI/Doc/Objects.xlsx
+++ b/TrizUI/TrizUI/Doc/Objects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" firstSheet="4" activeTab="11"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" firstSheet="5" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="CauseEffectCurProblem" sheetId="10" r:id="rId10"/>
     <sheet name="ComponentRel" sheetId="11" r:id="rId11"/>
     <sheet name="Conflict" sheetId="12" r:id="rId12"/>
+    <sheet name="AnalysisProcedure" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="227">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -824,6 +825,62 @@
   </si>
   <si>
     <t>新的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnalysisProcedure</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分析过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TemplateName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DisplayName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InputValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控件模板名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断条件选项值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准解输入框输入值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RadioValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SerialNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1912,8 +1969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="B2" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="F16" sqref="F15:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2152,6 +2209,246 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>50</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1">
+        <v>50</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1">
+        <v>50</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1">
+        <v>50</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1">
+        <v>500</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/TrizUI/TrizUI/Doc/Objects.xlsx
+++ b/TrizUI/TrizUI/Doc/Objects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" firstSheet="5" activeTab="12"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="ComponentRel" sheetId="11" r:id="rId11"/>
     <sheet name="Conflict" sheetId="12" r:id="rId12"/>
     <sheet name="AnalysisProcedure" sheetId="13" r:id="rId13"/>
+    <sheet name="StandardSolutionExample" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="237">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -881,6 +882,46 @@
   </si>
   <si>
     <t>顺序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FatherID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父节点ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StandardSolutionExample</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2216,14 +2257,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="A6" sqref="A1:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.625" customWidth="1"/>
     <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.625" customWidth="1"/>
+    <col min="4" max="4" width="6.625" customWidth="1"/>
+    <col min="5" max="5" width="6.375" customWidth="1"/>
+    <col min="6" max="6" width="4.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2445,6 +2492,224 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" customWidth="1"/>
+    <col min="4" max="4" width="6.75" customWidth="1"/>
+    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>200</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4000</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/TrizUI/TrizUI/Doc/Objects.xlsx
+++ b/TrizUI/TrizUI/Doc/Objects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" firstSheet="7" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,14 @@
     <sheet name="Conflict" sheetId="12" r:id="rId12"/>
     <sheet name="AnalysisProcedure" sheetId="13" r:id="rId13"/>
     <sheet name="StandardSolutionExample" sheetId="14" r:id="rId14"/>
+    <sheet name="StandSolution" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="241">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -922,6 +923,22 @@
   </si>
   <si>
     <t>StandardSolutionExample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属分类ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StandardSolution</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2504,8 +2521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
+      <selection activeCell="B7" sqref="A1:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2694,6 +2711,232 @@
         <v>1</v>
       </c>
       <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="B5" sqref="A1:H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>200</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4000</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">

--- a/TrizUI/TrizUI/Doc/Objects.xlsx
+++ b/TrizUI/TrizUI/Doc/Objects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" firstSheet="7" activeTab="14"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" firstSheet="8" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,14 @@
     <sheet name="AnalysisProcedure" sheetId="13" r:id="rId13"/>
     <sheet name="StandardSolutionExample" sheetId="14" r:id="rId14"/>
     <sheet name="StandSolution" sheetId="15" r:id="rId15"/>
+    <sheet name="MaterialFieldModel" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="259">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -939,6 +940,78 @@
   </si>
   <si>
     <t>StandardSolution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaterialFieldModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物质-场模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能主体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能客体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作用类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>符号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionSubject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunctionObject</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RelationType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FieldName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FieldType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateDateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Symbol</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2739,7 +2812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
       <selection activeCell="B5" sqref="A1:H9"/>
     </sheetView>
   </sheetViews>
@@ -2957,6 +3030,289 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
+      <selection sqref="A1:A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="4" width="6.5" customWidth="1"/>
+    <col min="5" max="5" width="5.375" customWidth="1"/>
+    <col min="6" max="6" width="4.625" customWidth="1"/>
+    <col min="7" max="7" width="7.625" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>200</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4000</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1">
+        <v>500</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1">
+        <v>500</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1">
+        <v>500</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1">
+        <v>500</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 

--- a/TrizUI/TrizUI/Doc/Objects.xlsx
+++ b/TrizUI/TrizUI/Doc/Objects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" firstSheet="8" activeTab="15"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" firstSheet="8" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="260">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1012,6 +1012,10 @@
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProcedureID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2345,10 +2349,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="A6" sqref="A1:H10"/>
+    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="B4" sqref="A1:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2407,40 +2411,40 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>259</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>259</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="D3" s="1">
+        <v>50</v>
+      </c>
       <c r="E3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B4" t="s">
-        <v>226</v>
+        <v>44</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>225</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
       <c r="F4" s="1">
         <v>1</v>
       </c>
@@ -2453,17 +2457,15 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
+      </c>
+      <c r="B5" t="s">
+        <v>226</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1">
-        <v>50</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1">
         <v>1</v>
@@ -2477,10 +2479,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B6" t="s">
-        <v>220</v>
+        <v>215</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -2501,10 +2503,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
+      </c>
+      <c r="B7" t="s">
+        <v>220</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
@@ -2525,10 +2527,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
@@ -2543,20 +2545,22 @@
       <c r="G8" s="1">
         <v>1</v>
       </c>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="1">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1">
@@ -2569,19 +2573,41 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1">
+        <v>500</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3038,7 +3064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
+    <sheetView zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
       <selection sqref="A1:A12"/>
     </sheetView>
   </sheetViews>

--- a/TrizUI/TrizUI/Doc/Objects.xlsx
+++ b/TrizUI/TrizUI/Doc/Objects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" firstSheet="8" activeTab="12"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" firstSheet="10" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -23,13 +23,15 @@
     <sheet name="StandardSolutionExample" sheetId="14" r:id="rId14"/>
     <sheet name="StandSolution" sheetId="15" r:id="rId15"/>
     <sheet name="MaterialFieldModel" sheetId="16" r:id="rId16"/>
+    <sheet name="TechnicalConflict" sheetId="17" r:id="rId17"/>
+    <sheet name="PhysicalConflict" sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="275">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1016,6 +1018,66 @@
   </si>
   <si>
     <t>ProcedureID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TechnicalConflict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术冲突</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提高特性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶化特性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhysicalConflict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理冲突</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正向特性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反向特性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共同相关参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImproveCharacter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeteriorateCharacter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ForwardCharacter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackwardCharacter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CommonRelevantParams</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2351,7 +2413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
       <selection activeCell="B4" sqref="A1:H11"/>
     </sheetView>
   </sheetViews>
@@ -3065,7 +3127,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
-      <selection sqref="A1:A12"/>
+      <selection activeCell="B8" sqref="A1:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3339,6 +3401,410 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="A6" sqref="A1:H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>500</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1">
+        <v>500</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1">
+        <v>500</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="8.625" customWidth="1"/>
+    <col min="4" max="4" width="6.5" customWidth="1"/>
+    <col min="5" max="5" width="6" customWidth="1"/>
+    <col min="6" max="6" width="5.25" customWidth="1"/>
+    <col min="7" max="7" width="7.625" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>500</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1">
+        <v>500</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1">
+        <v>500</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1">
+        <v>500</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/TrizUI/TrizUI/Doc/Objects.xlsx
+++ b/TrizUI/TrizUI/Doc/Objects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" firstSheet="10" activeTab="16"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" firstSheet="10" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -3408,7 +3408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
       <selection activeCell="A6" sqref="A1:H8"/>
     </sheetView>
   </sheetViews>
@@ -3596,9 +3596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -3805,6 +3803,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 

--- a/TrizUI/TrizUI/Doc/Objects.xlsx
+++ b/TrizUI/TrizUI/Doc/Objects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" firstSheet="10" activeTab="17"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" firstSheet="13" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,15 @@
     <sheet name="MaterialFieldModel" sheetId="16" r:id="rId16"/>
     <sheet name="TechnicalConflict" sheetId="17" r:id="rId17"/>
     <sheet name="PhysicalConflict" sheetId="18" r:id="rId18"/>
+    <sheet name="TechnicalConflictResolve" sheetId="19" r:id="rId19"/>
+    <sheet name="DictionaryTree" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="300">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1061,23 +1063,123 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>DeteriorateCharacter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ForwardCharacter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BackwardCharacter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CommonRelevantParams</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TechnicalConflictResolve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术冲突解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TechnicalConflictID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术冲突ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发明原理ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>案例代码ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发明原理名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>案例代码名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InventivePrincipleID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InventivePrincipleName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ImproveCharacter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DeteriorateCharacter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ForwardCharacter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BackwardCharacter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CommonRelevantParams</t>
+    <t>DictionaryTree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TreeTypeID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TreeTypeID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父节点ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2683,7 +2785,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
-      <selection activeCell="B7" sqref="A1:H9"/>
+      <selection activeCell="A8" sqref="A1:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3409,7 +3511,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="A6" sqref="A1:H8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3510,7 +3612,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>262</v>
@@ -3532,7 +3634,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>263</v>
@@ -3596,7 +3698,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0"/>
+    <sheetView zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -3698,7 +3802,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>267</v>
@@ -3720,7 +3824,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>268</v>
@@ -3742,7 +3846,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>269</v>
@@ -3804,6 +3908,312 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.875" customWidth="1"/>
+    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1">
+        <v>500</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1">
+        <v>500</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1">
+        <v>100</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1">
+        <v>500</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1">
+        <v>100</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1">
+        <v>500</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1">
+        <v>500</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4039,6 +4449,267 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="325" zoomScaleNormal="325" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.625" customWidth="1"/>
+    <col min="4" max="4" width="6.625" customWidth="1"/>
+    <col min="5" max="5" width="5.125" customWidth="1"/>
+    <col min="6" max="6" width="4.625" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1">
+        <v>200</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D7" s="1">
+        <v>200</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4000</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/TrizUI/TrizUI/Doc/Objects.xlsx
+++ b/TrizUI/TrizUI/Doc/Objects.xlsx
@@ -1139,47 +1139,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>TreeTypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String</t>
+    <t>顺序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父节点ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>TreeTypeID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顺序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>父节点ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4461,18 +4461,19 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="325" zoomScaleNormal="325" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.625" customWidth="1"/>
+    <col min="1" max="1" width="14.625" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="8.375" customWidth="1"/>
     <col min="4" max="4" width="6.625" customWidth="1"/>
     <col min="5" max="5" width="5.125" customWidth="1"/>
     <col min="6" max="6" width="4.625" customWidth="1"/>
     <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -4543,10 +4544,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>21</v>
@@ -4568,7 +4569,7 @@
         <v>224</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>21</v>
@@ -4590,7 +4591,7 @@
         <v>0</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
@@ -4611,13 +4612,13 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>291</v>
       </c>
       <c r="D7" s="1">
         <v>200</v>
@@ -4636,7 +4637,7 @@
         <v>61</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
@@ -4658,7 +4659,7 @@
         <v>36</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>8</v>
@@ -4680,7 +4681,7 @@
         <v>135</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>21</v>
@@ -4700,7 +4701,7 @@
         <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>20</v>
@@ -4714,6 +4715,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 

--- a/TrizUI/TrizUI/Doc/Objects.xlsx
+++ b/TrizUI/TrizUI/Doc/Objects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" firstSheet="13" activeTab="19"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" firstSheet="14" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -27,13 +27,14 @@
     <sheet name="PhysicalConflict" sheetId="18" r:id="rId18"/>
     <sheet name="TechnicalConflictResolve" sheetId="19" r:id="rId19"/>
     <sheet name="DictionaryTree" sheetId="20" r:id="rId20"/>
+    <sheet name="ConflictResolve" sheetId="21" r:id="rId21"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="317">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1180,6 +1181,74 @@
   </si>
   <si>
     <t>TreeTypeID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConflictResolve</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲突解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConflictID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ForwardCharacter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConflictType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DevidePrincipleID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DevidePrincipleName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲突类型(技术or物理)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术冲突ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正向特性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反向特性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分离原理ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分离原理名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发明原理ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发明原理名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>案例代码ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3916,7 +3985,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A7" sqref="A1:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4460,7 +4529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="325" zoomScaleNormal="325" workbookViewId="0">
+    <sheetView zoomScale="325" zoomScaleNormal="325" workbookViewId="0">
       <selection sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
@@ -4716,6 +4785,366 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.25" customWidth="1"/>
+    <col min="5" max="5" width="6" customWidth="1"/>
+    <col min="6" max="6" width="5.125" customWidth="1"/>
+    <col min="7" max="7" width="7.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1">
+        <v>500</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1">
+        <v>500</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1">
+        <v>100</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1">
+        <v>500</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1">
+        <v>100</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1">
+        <v>500</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1">
+        <v>100</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1">
+        <v>500</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1">
+        <v>500</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/TrizUI/TrizUI/Doc/Objects.xlsx
+++ b/TrizUI/TrizUI/Doc/Objects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" firstSheet="14" activeTab="20"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" firstSheet="14" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -28,13 +28,14 @@
     <sheet name="TechnicalConflictResolve" sheetId="19" r:id="rId19"/>
     <sheet name="DictionaryTree" sheetId="20" r:id="rId20"/>
     <sheet name="ConflictResolve" sheetId="21" r:id="rId21"/>
+    <sheet name="TechEvolution" sheetId="22" r:id="rId22"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="321">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1249,6 +1250,22 @@
   </si>
   <si>
     <t>案例代码ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TechEvolution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术进化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特征</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4530,7 +4547,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView zoomScale="325" zoomScaleNormal="325" workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="B6" sqref="A1:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4792,8 +4809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
+      <selection activeCell="A6" sqref="A1:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5141,6 +5158,205 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="14.75" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.75" customWidth="1"/>
+    <col min="4" max="4" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>200</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1">
+        <v>200</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/TrizUI/TrizUI/Doc/Objects.xlsx
+++ b/TrizUI/TrizUI/Doc/Objects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" firstSheet="14" activeTab="21"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="28035" windowHeight="12345" firstSheet="15" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="Project" sheetId="1" r:id="rId1"/>
@@ -29,13 +29,14 @@
     <sheet name="DictionaryTree" sheetId="20" r:id="rId20"/>
     <sheet name="ConflictResolve" sheetId="21" r:id="rId21"/>
     <sheet name="TechEvolution" sheetId="22" r:id="rId22"/>
+    <sheet name="ConflictMatrix" sheetId="23" r:id="rId23"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterate="1" iterateCount="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="328">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1266,6 +1267,34 @@
   </si>
   <si>
     <t>Character</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImproveCharacter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeteriorateCharacter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConflictIDs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶化特性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>改进特性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConflictMatrix</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5170,8 +5199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
+      <selection activeCell="C6" sqref="A1:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5332,6 +5361,199 @@
       </c>
       <c r="D7" s="1">
         <v>1000</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="295" zoomScaleNormal="295" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="14.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1">
+        <v>200</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>200</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1">
+        <v>200</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="1">
+        <v>500</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1">
